--- a/Output_testing/R1_201907/Country/HKD/MN/ALGERIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ALGERIA_201907_HKD_MN.xlsx
@@ -644,7 +644,7 @@
         <v>134</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D10" s="8" t="n">
         <v>4.370422</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/ALGERIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ALGERIA_201907_HKD_MN.xlsx
@@ -553,8 +553,10 @@
       <c r="F7" s="8" t="n">
         <v>1.448962</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>56.59125325408214</v>
@@ -655,8 +657,10 @@
       <c r="F10" s="8" t="n">
         <v>10.802569</v>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0.003573</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H10" s="9" t="n">
         <v>21.64578157441088</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/ALGERIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ALGERIA_201907_HKD_MN.xlsx
@@ -814,136 +814,439 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>2114.658756</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>89.09179148441748</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>1190.013332</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>86.43452833095188</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1131.088305</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>74.90123811060012</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>633.634385</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>84.21417911324052</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>9.55128499778677</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>74.269311</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>3.12900885333357</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>50.084503</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>3.637799911215737</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>213.971902</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>14.16932728402668</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>22.11209</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>2.938842259685914</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-71.85814460122936</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>16.606602</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.6996457080608567</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>29.137914</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.11638120801981</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>28.156385</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>1.864530017591093</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>17.744403</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>2.358347917781518</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>9.613430552505498</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>7.881639</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.332057991083008</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>4.497159</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.3266432455349124</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>21.633051</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1.432551549553645</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>16.515246</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.194984864565437</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>31.9519189230455</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>15.073846</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.6350698148766565</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>22.068936</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.602938406345488</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>26.50854</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.755408890470641</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>14.921648</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.983185204408891</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-20.91095010599253</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>4.0911</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.1723603995716746</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>1.576704</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.1145211258503154</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>2.555057</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.1691971633842997</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>6.48991</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.8625517429405457</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>199.437243957997</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>11.919455</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.5021735050418212</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>16.26367</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.181283106314184</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>11.420977</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.7563028580095587</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>6.036527</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.8022941589571602</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>296.2130043135926</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>2.421746</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.1020295539637517</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>3.335664</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.2422800961615918</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>3.651175</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.2417826502577713</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>5.30773</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.7054322421355339</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>192.6178056076539</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>7.024657</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.2959528457808318</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>6.692848</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.4861232597272739</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>5.435008</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.3599089713344852</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>4.133202</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.5493297424810745</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>149.72566562564</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>0.649747</v>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>0.886673</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.05871593332338463</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>3.115183</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.4140283187638593</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>511.4112269311315</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>119.451214</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>5.032548452582829</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>52.459561</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>3.810308077694543</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>64.79921299999999</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>4.291036571448323</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>22.397871</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>2.976824435039547</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-37.04116389796203</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -975,136 +1278,617 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>1.76317</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>2.76097</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>1.448962</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>FISH, CRUSTACEANS, MOLLUSCS AND OTHER AQUATIC INVERTEBRATES, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>COFFEE AND COFFEE SUBSTITUTES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1136,136 +1920,439 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>2114.658756</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>89.15802106506442</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>1190.013332</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>86.60821088401373</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1131.088305</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>74.97317561824265</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>633.634385</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>84.21417911324052</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>9.55128499778677</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>74.269311</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>3.131334914362807</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>50.084503</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>3.645109748942727</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>213.971902</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>14.18293595212746</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>22.11209</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>2.938842259685914</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-71.85814460122936</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>16.606602</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.7001658148077774</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>29.137914</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.120633889194324</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>28.156385</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>1.866320770932074</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>17.744403</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>2.358347917781518</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>9.613430552505498</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>7.881639</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.3323048383080269</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>4.497159</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.3272996062962934</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>21.633051</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.433927417171376</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>16.515246</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.194984864565437</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>31.9519189230455</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>15.073846</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.6355419168157915</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>22.068936</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.606159369543771</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>26.50854</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.757094840445026</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>14.921648</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.983185204408891</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-20.91095010599253</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>4.0911</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.1724885298605999</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>1.576704</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.1147512459412244</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>2.555057</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.1693596656678545</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>6.48991</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.8625517429405457</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>199.437243957997</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>11.919455</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.5025468137394776</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>16.26367</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.183656790416536</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>11.420977</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.7570292350895717</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>6.036527</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.8022941589571602</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>296.2130043135926</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>2.421746</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.1021054012944656</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>3.335664</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.2427669366230367</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>3.651175</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.2420148659285599</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>5.30773</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.7054322421355339</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>192.6178056076539</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>7.024657</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.2961728529502999</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>6.692848</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.4871000814961034</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>5.435008</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.3602546392437094</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>4.133202</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.5493297424810745</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>149.72566562564</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>0.649747</v>
+      </c>
+      <c r="F53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>0.886673</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.05877232595465132</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>3.115183</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.4140283187638593</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>511.4112269311315</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>117.688044</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>4.961950989154407</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>49.698591</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>3.617023384714774</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>63.350251</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>4.199114669197073</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>22.397871</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>2.976824435039547</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-34.36801925450279</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1297,136 +2384,539 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>5.23562</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>52.7071983164687</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>4.395884</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>20.97578931124589</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>8.607092</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>41.43403456409763</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>4.22483</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>42.531534500855</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-40.82663958822088</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.2428006846345551</v>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.3760901757517867</v>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>1.839498387329707</v>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>4.761267182676314</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>29.46383845351597</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>79.78146599999999</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>88.95488912642463</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>3.367846</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>16.07031216672738</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>5.974163</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>28.75926924372984</v>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>5.224</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>5.824665352682818</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>9.50033</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>45.33261579862177</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>3.987328</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>19.19476243200308</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.272111074220657</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>1.317437</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>6.342064217975256</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>WOOL AND OTHER ANIMAL HAIR (INCLUDING WOOL TOPS)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>2.303273479998075</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE AND LEATHER MACHINERY, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.06643238819621625</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.1022620571264644</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.0606652866701969</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>FISH, CRUSTACEANS, MOLLUSCS AND OTHER AQUATIC INVERTEBRATES, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>1.898053</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>2.116294706480796</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>2.352556</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>11.22566450773209</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>2.564237</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>2.85907779670125</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>0.763913</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>3.645154908573971</v>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
